--- a/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC11A644-2EA4-4C0C-85E8-A19EA08DE51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C232BAA1-5F6B-4614-B916-EEC784FA53EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1695" windowWidth="40350" windowHeight="25635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="1530" windowWidth="16905" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment Exposure Overview" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -413,19 +415,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>Increase initially then decrease [2]</t>
@@ -517,10 +507,19 @@
     <t>The environment exposure scenario simulates the physiology of an adult woman who is exposed to cold weather long enough to develop hypothermia. This scenario highlights the ability of the Pulse physiology engine to siimulate physiology when the body is exposed to an abnormal environment.</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -996,6 +995,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,18 +1030,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1394,20 +1393,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1438,52 +1437,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1509,43 +1508,43 @@
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1559,21 +1558,21 @@
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -1619,6 +1618,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B9:D9"/>
@@ -1626,12 +1631,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,8 +1649,8 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X16" sqref="X16"/>
+      <pane xSplit="4" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>24</v>
@@ -1724,25 +1723,25 @@
         <v>26</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N1" s="57" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>30</v>
@@ -1766,13 +1765,13 @@
         <v>58</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Z1" s="39" t="s">
         <v>59</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>60</v>
@@ -1807,7 +1806,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>62</v>
@@ -1831,7 +1830,7 @@
         <v>74</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>64</v>
@@ -1843,7 +1842,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>36</v>
@@ -1883,7 +1882,7 @@
         <v>200</v>
       </c>
       <c r="AE2" s="67">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF2" s="20" t="s">
         <v>75</v>
@@ -1910,36 +1909,36 @@
         <v>67</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="67">
-        <v>170</v>
+        <v>84</v>
+      </c>
+      <c r="G3" s="68">
+        <v>190</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K3" s="67">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3" s="67">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N3" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="22">
+        <v>80</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="40" t="s">
-        <v>89</v>
-      </c>
       <c r="Q3" s="67">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>40</v>
@@ -1954,7 +1953,7 @@
         <v>36.732999999999997</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y3" s="68">
         <v>36</v>
@@ -1963,22 +1962,22 @@
         <v>66</v>
       </c>
       <c r="AA3" s="67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AC3" s="67">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="67">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AG3" s="68">
         <v>420</v>
@@ -2004,34 +2003,34 @@
       <c r="F4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="68" t="s">
-        <v>113</v>
+      <c r="G4" s="68">
+        <v>180</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
       <c r="J4" s="42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N4" s="65" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="P4" s="42" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R4" s="26" t="s">
         <v>40</v>
@@ -2046,7 +2045,7 @@
         <v>41.706000000000003</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="67">
         <v>36</v>
@@ -2058,16 +2057,16 @@
         <v>30</v>
       </c>
       <c r="AB4" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC4" s="67">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE4" s="67">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>72</v>

--- a/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C232BAA1-5F6B-4614-B916-EEC784FA53EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819ED07B-7D36-4CEA-80CA-B0DD6BB7E773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1530" windowWidth="16905" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="1860" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment Exposure Overview" sheetId="10" r:id="rId1"/>
     <sheet name="Environment Exposure Breakdown" sheetId="11" r:id="rId2"/>
+    <sheet name="Environmental Exposure" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Environment Exposure Breakdown'!$A$1:$AG$5</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -520,6 +521,96 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time  (s)</t>
+  </si>
+  <si>
+    <t>Sample Scenario Time  (s)</t>
+  </si>
+  <si>
+    <t>Heart Rate  (beats/min)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>Patient  exposed to very low temeratures for 10 minutes</t>
+  </si>
+  <si>
+    <t>Patient  indoors and actively heated for 10 minutes</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Systolic Arterial Pressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Respiration Rate
+(Breaths/min)</t>
+  </si>
+  <si>
+    <t>Core Temperature
+(C)</t>
+  </si>
+  <si>
+    <t>Increase initially then decrease @cite mallet2002pathophysiology</t>
+  </si>
+  <si>
+    <t>Back toward baseline @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>Small rise then gradual fall below baseline @cite reuler1978hypothermia</t>
+  </si>
+  <si>
+    <t>Increasing back to baseline @cite reuler1978hypothermia
+Back to baseline @cite rmetoyer2016SME</t>
+  </si>
+  <si>
+    <t>Increasing back to baseline reuler1978hypothermia</t>
+  </si>
+  <si>
+    <t>Increasing @cite mallet2002pathophysiology</t>
+  </si>
+  <si>
+    <t>&lt; 35 @cite reuler1978hypothermia</t>
+  </si>
+  <si>
+    <t>&gt; 35 @cite reuler1978hypothermia</t>
+  </si>
+  <si>
+    <t>Increase @cite reuler1978hypothermia</t>
+  </si>
+  <si>
+    <t>Decrease in hypothermia @cite reuler1978hypothermia
+1130 - 1320 with light activity [1]</t>
+  </si>
+  <si>
+    <t>Decreasing to baseline @cite mallet2002pathophysiology</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
+  </si>
+  <si>
+    <t>Decrease in hypothermia @cite reuler1978hypothermia</t>
+  </si>
+  <si>
+    <t>approximately 350% increase over BMR (304.38 W for this patient) @cite williams2005rewarming</t>
   </si>
 </sst>
 </file>
@@ -670,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -782,6 +873,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -789,7 +893,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -995,6 +1099,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1007,32 +1135,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1380,8 +1502,8 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,20 +1515,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1437,52 +1559,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1510,41 +1632,41 @@
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1558,21 +1680,21 @@
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -1618,12 +1740,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B9:D9"/>
@@ -1631,6 +1747,12 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1648,9 +1770,9 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF3" sqref="AF3:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,4 +2284,338 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217FB4F3-F6BB-44E2-B8F1-7F7043E3B512}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" customWidth="1"/>
+    <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" customWidth="1"/>
+    <col min="23" max="23" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="82">
+        <v>60</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="82">
+        <v>2460</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="82">
+        <v>2460</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="82">
+        <v>3090</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="X4" s="67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819ED07B-7D36-4CEA-80CA-B0DD6BB7E773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726A0CB-4006-4D15-A6F2-3C6487884DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="1860" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -538,9 +538,6 @@
     <t>Sample Scenario Time  (s)</t>
   </si>
   <si>
-    <t>Heart Rate  (beats/min)</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -553,22 +550,6 @@
     <t>Patient  indoors and actively heated for 10 minutes</t>
   </si>
   <si>
-    <t>Mean Arterial Pressure
-(mmHg)</t>
-  </si>
-  <si>
-    <t>Systolic Arterial Pressure
-(mmHg)</t>
-  </si>
-  <si>
-    <t>Respiration Rate
-(Breaths/min)</t>
-  </si>
-  <si>
-    <t>Core Temperature
-(C)</t>
-  </si>
-  <si>
     <t>Increase initially then decrease @cite mallet2002pathophysiology</t>
   </si>
   <si>
@@ -578,10 +559,6 @@
     <t>Small rise then gradual fall below baseline @cite reuler1978hypothermia</t>
   </si>
   <si>
-    <t>Increasing back to baseline @cite reuler1978hypothermia
-Back to baseline @cite rmetoyer2016SME</t>
-  </si>
-  <si>
     <t>Increasing back to baseline reuler1978hypothermia</t>
   </si>
   <si>
@@ -597,10 +574,6 @@
     <t>Increase @cite reuler1978hypothermia</t>
   </si>
   <si>
-    <t>Decrease in hypothermia @cite reuler1978hypothermia
-1130 - 1320 with light activity [1]</t>
-  </si>
-  <si>
     <t>Decreasing to baseline @cite mallet2002pathophysiology</t>
   </si>
   <si>
@@ -610,7 +583,78 @@
     <t>Decrease in hypothermia @cite reuler1978hypothermia</t>
   </si>
   <si>
-    <t>approximately 350% increase over BMR (304.38 W for this patient) @cite williams2005rewarming</t>
+    <t>&lt;/span&gt;|</t>
+  </si>
+  <si>
+    <t>Decrease in hypothermia; @cite reuler1978hypothermia 1130 - 1320 with light activity @cite herman2007physics</t>
+  </si>
+  <si>
+    <t>Approximately 350% increase over BMR (304.38 W for this patient) @cite williams2005rewarming</t>
+  </si>
+  <si>
+    <t>Respiration Rate (Breaths/min)</t>
+  </si>
+  <si>
+    <t>Core Temperature (C)</t>
+  </si>
+  <si>
+    <t>Oxygen Consumption (mL/min)</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide Production (mL/min)</t>
+  </si>
+  <si>
+    <t>Metabolic Rate (W)</t>
+  </si>
+  <si>
+    <t>Systolic Arterial Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Heart Rate (beats/min)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cold Exposure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Environment change to Alaska outdoors for 10 minutes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Active Heating and Additional Clothing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Environment change to indoors and active heating applied to skin)</t>
+    </r>
+  </si>
+  <si>
+    <t>Increasing back to baseline; @cite reuler1978hypothermia Back to baseline @cite rmetoyer2016SME</t>
   </si>
 </sst>
 </file>
@@ -893,7 +937,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1148,6 +1192,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1503,7 +1550,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217FB4F3-F6BB-44E2-B8F1-7F7043E3B512}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2366,7 @@
     <col min="24" max="24" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>114</v>
       </c>
@@ -2348,137 +2395,143 @@
         <v>114</v>
       </c>
       <c r="J1" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>120</v>
-      </c>
       <c r="C2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="H2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="N2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="P2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="R2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="T2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="V2" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W2" s="82" t="s">
         <v>114</v>
       </c>
       <c r="X2" s="85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="Y2" s="82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="82" t="s">
         <v>114</v>
@@ -2492,67 +2545,70 @@
       <c r="H3" s="82">
         <v>2460</v>
       </c>
-      <c r="I3" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="87" t="s">
+      <c r="I3" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="86" t="s">
+      <c r="S3" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" s="68" t="s">
+      <c r="W3" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="X3" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="U3" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>114</v>
@@ -2566,53 +2622,56 @@
       <c r="H4" s="82">
         <v>3090</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="V4" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" s="67" t="s">
-        <v>129</v>
+      <c r="S4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y4" s="86" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726A0CB-4006-4D15-A6F2-3C6487884DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53076BB6-7559-4ECB-90AD-5C24C0BA98B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="1860" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2337,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217FB4F3-F6BB-44E2-B8F1-7F7043E3B512}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53076BB6-7559-4ECB-90AD-5C24C0BA98B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B31C5AD-8402-4E03-8830-0EE53FC407EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="1860" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,9 +553,6 @@
     <t>Increase initially then decrease @cite mallet2002pathophysiology</t>
   </si>
   <si>
-    <t>Back toward baseline @cite rmetoyer2016SME</t>
-  </si>
-  <si>
     <t>Small rise then gradual fall below baseline @cite reuler1978hypothermia</t>
   </si>
   <si>
@@ -654,7 +651,10 @@
     </r>
   </si>
   <si>
-    <t>Increasing back to baseline; @cite reuler1978hypothermia Back to baseline @cite rmetoyer2016SME</t>
+    <t>Back toward baseline @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Increasing back to baseline; @cite reuler1978hypothermia Back to baseline @cite metoyer2016SME</t>
   </si>
 </sst>
 </file>
@@ -2395,49 +2395,49 @@
         <v>114</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K1" s="82" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M1" s="82" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" s="82" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="57" t="s">
+      <c r="S1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="W1" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="Y1" s="82" t="s">
         <v>114</v>
@@ -2525,7 +2525,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>114</v>
@@ -2546,7 +2546,7 @@
         <v>2460</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="88" t="s">
         <v>123</v>
@@ -2555,46 +2555,46 @@
         <v>120</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3" s="86" t="s">
         <v>120</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O3" s="86" t="s">
         <v>120</v>
       </c>
       <c r="P3" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="88" t="s">
         <v>127</v>
-      </c>
-      <c r="Q3" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" s="88" t="s">
-        <v>128</v>
       </c>
       <c r="S3" s="86" t="s">
         <v>120</v>
       </c>
       <c r="T3" s="87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U3" s="86" t="s">
         <v>120</v>
       </c>
       <c r="V3" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="W3" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="86" t="s">
         <v>133</v>
-      </c>
-      <c r="W3" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="X3" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="86" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>114</v>
@@ -2623,10 +2623,10 @@
         <v>3090</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K4" s="86" t="s">
         <v>120</v>
@@ -2638,40 +2638,40 @@
         <v>120</v>
       </c>
       <c r="N4" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="86" t="s">
         <v>120</v>
       </c>
       <c r="P4" s="87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="86" t="s">
         <v>120</v>
       </c>
       <c r="R4" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S4" s="86" t="s">
         <v>120</v>
       </c>
       <c r="T4" s="87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U4" s="86" t="s">
         <v>120</v>
       </c>
       <c r="V4" s="87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W4" s="86" t="s">
         <v>120</v>
       </c>
       <c r="X4" s="87" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="Y4" s="86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C6230-95EA-4A35-9853-2DFF0DB41829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB36717C-6B6C-42F9-A354-79F8BA871116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="8370" windowWidth="25785" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="8370" windowWidth="27840" windowHeight="22365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental Exposure" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>|</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Increasing back to baseline; @cite reuler1978hypothermia Back to baseline @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>|&lt;span class="warning"&gt;</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,13 +278,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,9 +325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,9 +365,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,26 +400,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +435,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217FB4F3-F6BB-44E2-B8F1-7F7043E3B512}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,310 +643,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>60</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>2460</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="S3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="12" t="s">
+      <c r="U3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="13" t="s">
+      <c r="W3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>2460</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>3090</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="O4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="12" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="12" t="s">
+      <c r="S4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="12" t="s">
+      <c r="U4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="12" t="s">
+      <c r="W4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
